--- a/data/transformed_data_2009.xlsx
+++ b/data/transformed_data_2009.xlsx
@@ -2372,7 +2372,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>474880.9010623044</v>
+        <v>479778.5294623044</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2708,7 +2708,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>43815.8</v>
+        <v>37681.588</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2876,7 +2876,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>8832.74</v>
+        <v>7596.1564</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -5101,7 +5101,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>13476.5391715505</v>
+        <v>13304.2159715505</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -5437,7 +5437,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>44.1</v>
+        <v>37.926</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -5605,7 +5605,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1274.98</v>
+        <v>1096.4828</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -7816,7 +7816,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>15490.00314822191</v>
+        <v>15849.3299482219</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -8152,7 +8152,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>10078.32</v>
+        <v>8667.3552</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -8320,7 +8320,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>7511.7</v>
+        <v>6460.062</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -10559,7 +10559,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>3744.113308108108</v>
+        <v>3800.365308108108</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -10895,7 +10895,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1283.8</v>
+        <v>1104.068</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -11063,7 +11063,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>882</v>
+        <v>758.52</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -13302,7 +13302,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>12300.03634651493</v>
+        <v>12397.17394651493</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -13638,7 +13638,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>5762.4</v>
+        <v>4955.664</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -13806,7 +13806,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>5068.559999999999</v>
+        <v>4358.9616</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -16045,7 +16045,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>8313.790799999999</v>
+        <v>8219.946</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -16381,7 +16381,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>237.16</v>
+        <v>203.9576</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -16549,7 +16549,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>907.48</v>
+        <v>780.4328</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -18774,7 +18774,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>12887.82046770981</v>
+        <v>12443.56686770981</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -19110,7 +19110,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>7219.66</v>
+        <v>6208.9076</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -19278,7 +19278,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>10392.9</v>
+        <v>8937.893999999998</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -21517,7 +21517,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>8762.344745945946</v>
+        <v>9063.224345945948</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -21853,7 +21853,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>7551.88</v>
+        <v>6494.6168</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -22021,7 +22021,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>5402.74</v>
+        <v>4646.356400000001</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -24260,7 +24260,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>12723.76975021337</v>
+        <v>12115.56215021337</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -24596,7 +24596,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>3745.56</v>
+        <v>3221.1816</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -24764,7 +24764,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>8089.9</v>
+        <v>6957.314</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -27003,7 +27003,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>8341.785705832148</v>
+        <v>8061.486105832149</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -27339,7 +27339,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1248.52</v>
+        <v>1073.7272</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -27507,7 +27507,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>3250.66</v>
+        <v>2795.5676</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -29718,7 +29718,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>5556.797700711237</v>
+        <v>5746.956900711237</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -30054,7 +30054,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>6022.099999999999</v>
+        <v>5179.005999999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -30222,7 +30222,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>4663.82</v>
+        <v>4010.8852</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -32461,7 +32461,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>52517.81558349928</v>
+        <v>52502.99798349928</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -32797,7 +32797,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>3247.72</v>
+        <v>2793.0392</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -32965,7 +32965,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>3353.56</v>
+        <v>2884.0616</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -35176,7 +35176,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>8870.876219061165</v>
+        <v>8771.131819061164</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -35512,7 +35512,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>317.52</v>
+        <v>273.0672</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -35680,7 +35680,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1029.98</v>
+        <v>885.7828</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -37905,7 +37905,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>7355.042580938833</v>
+        <v>7068.020180938833</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -38241,7 +38241,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>45.08</v>
+        <v>38.7688</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -38409,7 +38409,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>2095.24</v>
+        <v>1801.9064</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -40634,7 +40634,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>2894.021048648649</v>
+        <v>2867.267048648649</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -40970,7 +40970,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>2651.88</v>
+        <v>2280.6168</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -41138,7 +41138,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>2842.98</v>
+        <v>2444.9628</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -43377,7 +43377,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>2122.013599999998</v>
+        <v>2066.310399999998</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -43713,7 +43713,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>5356.68</v>
+        <v>4606.7448</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -43881,7 +43881,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>5754.559999999999</v>
+        <v>4948.9216</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -46120,7 +46120,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>8919.407129445235</v>
+        <v>8525.780329445235</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -46456,7 +46456,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>4590.32</v>
+        <v>3947.6752</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -46624,7 +46624,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>7401.94</v>
+        <v>6365.6684</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -48863,7 +48863,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>2941.176780654338</v>
+        <v>2905.504780654338</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -49199,7 +49199,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>3818.08</v>
+        <v>3283.5488</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -49367,7 +49367,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>4072.88</v>
+        <v>3502.6768</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -51592,7 +51592,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>7320.998356756756</v>
+        <v>6940.268356756756</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -51928,7 +51928,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>526.26</v>
+        <v>452.5836</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -52096,7 +52096,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>3245.76</v>
+        <v>2791.3536</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -54321,7 +54321,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>3354.55533428165</v>
+        <v>3337.67973428165</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -54657,7 +54657,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1017.24</v>
+        <v>874.8263999999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -54825,7 +54825,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1137.78</v>
+        <v>978.4908</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -57050,7 +57050,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>6472.396868278805</v>
+        <v>6433.157668278805</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -57386,7 +57386,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1579.76</v>
+        <v>1358.5936</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -57554,7 +57554,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1860.04</v>
+        <v>1599.6344</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -59779,7 +59779,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>8454.23706742532</v>
+        <v>8547.53306742532</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -60115,7 +60115,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>2598.96</v>
+        <v>2235.1056</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -60283,7 +60283,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1932.56</v>
+        <v>1662.0016</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -62508,7 +62508,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>30394.90904807965</v>
+        <v>32619.60704807966</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -62844,7 +62844,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>20440.84</v>
+        <v>17579.1224</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -63012,7 +63012,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>4550.14</v>
+        <v>3913.1204</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -65251,7 +65251,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>2433.927386628734</v>
+        <v>2418.972586628734</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -65587,7 +65587,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>2022.72</v>
+        <v>1739.5392</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -65755,7 +65755,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>2129.54</v>
+        <v>1831.4044</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -67980,7 +67980,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>59104.10172290185</v>
+        <v>57774.22212290185</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -68316,7 +68316,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>13516.16</v>
+        <v>11623.8976</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -68484,7 +68484,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>23015.3</v>
+        <v>19793.158</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -70723,7 +70723,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>38323.7651601707</v>
+        <v>37873.4747601707</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -71059,7 +71059,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1550.36</v>
+        <v>1333.3096</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -71227,7 +71227,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>4766.72</v>
+        <v>4099.3792</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -73466,7 +73466,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>24074.87351863442</v>
+        <v>26314.80071863442</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -73802,7 +73802,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>21518.84</v>
+        <v>18506.2024</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -73970,7 +73970,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>5519.36</v>
+        <v>4746.6496</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -76209,7 +76209,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>18549.41535362731</v>
+        <v>19367.53895362731</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -76545,7 +76545,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>21663.88</v>
+        <v>18630.9368</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -76713,7 +76713,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>15820.14</v>
+        <v>13605.3204</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -78952,7 +78952,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>14002.26573140447</v>
+        <v>14255.26253140447</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -79288,7 +79288,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>4271.82</v>
+        <v>3673.7652</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -79456,7 +79456,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>2464.7</v>
+        <v>2119.642</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -81695,7 +81695,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>16517.39254679943</v>
+        <v>16443.71614679943</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -82031,7 +82031,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>2027.62</v>
+        <v>1743.7532</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -82199,7 +82199,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>2553.88</v>
+        <v>2196.3368</v>
       </c>
     </row>
     <row r="168" spans="1:4">
